--- a/raw_data/bag_data_wagga.xlsx
+++ b/raw_data/bag_data_wagga.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/Wagga_CBurn/Wagga/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1695" documentId="8_{14FD808A-2535-496D-929C-9E850709DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13E0E48-1F92-491E-979B-6479488A435A}"/>
+  <xr:revisionPtr revIDLastSave="2045" documentId="8_{14FD808A-2535-496D-929C-9E850709DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C6CCD0-A65E-4407-B5FE-CDCA0CFE52EA}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D17AEFDB-50F3-4E94-B5FE-1431773EF268}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D17AEFDB-50F3-4E94-B5FE-1431773EF268}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Legend" sheetId="3" r:id="rId2"/>
-    <sheet name="Dry_bead_w" sheetId="4" r:id="rId3"/>
-    <sheet name="Sample dates" sheetId="2" r:id="rId4"/>
+    <sheet name="myc_biomass" sheetId="5" r:id="rId2"/>
+    <sheet name="Legend" sheetId="3" r:id="rId3"/>
+    <sheet name="Dry_bead_w" sheetId="4" r:id="rId4"/>
+    <sheet name="Sample dates" sheetId="2" r:id="rId5"/>
+    <sheet name="myc_subsample" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="196">
   <si>
     <t>Harvest_date</t>
   </si>
@@ -405,6 +407,228 @@
   </si>
   <si>
     <t>WTB2_OG</t>
+  </si>
+  <si>
+    <t>weight_mg</t>
+  </si>
+  <si>
+    <t>Plot_label</t>
+  </si>
+  <si>
+    <t>ATB1</t>
+  </si>
+  <si>
+    <t>ATB2</t>
+  </si>
+  <si>
+    <t>ATB3</t>
+  </si>
+  <si>
+    <t>ATU1</t>
+  </si>
+  <si>
+    <t>ATU2</t>
+  </si>
+  <si>
+    <t>ATU3</t>
+  </si>
+  <si>
+    <t>ACU1</t>
+  </si>
+  <si>
+    <t>ACU2</t>
+  </si>
+  <si>
+    <t>ACU3</t>
+  </si>
+  <si>
+    <t>ACB3</t>
+  </si>
+  <si>
+    <t>ACB1</t>
+  </si>
+  <si>
+    <t>ACB2</t>
+  </si>
+  <si>
+    <t>BDB1</t>
+  </si>
+  <si>
+    <t>BDU1</t>
+  </si>
+  <si>
+    <t>BDU2</t>
+  </si>
+  <si>
+    <t>BDU3</t>
+  </si>
+  <si>
+    <t>Amount_Beads_in_sample</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>Sample too dirty to process</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>less material than what it seems</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>DNA_samp</t>
+  </si>
+  <si>
+    <t>CN_Samp</t>
+  </si>
+  <si>
+    <t>Plate_ID</t>
+  </si>
+  <si>
+    <t>Total_P_samp</t>
+  </si>
+  <si>
+    <t>no hyph, lots of dirt….trying DNA extraction</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Sample_left</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>yes (.12)</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>I used scrapes and powder left in tube to get DNA</t>
   </si>
 </sst>
 </file>
@@ -463,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -471,6 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F38980-8017-4B78-9B46-856AFB63CC63}">
   <dimension ref="A1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -8943,6 +9168,657 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659A3AC1-B910-4956-B92F-1F618A3A60D5}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1.093</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>1.115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>14.38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>4.96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1.903</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>10.27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>5.8220000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>11.502000000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>1.27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>2.694</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>3.891</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>5.2809999999999997</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>0.497</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>10.865</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>6.226</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>5.9080000000000004</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>7.9829999999999997</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39">
+        <v>23.895</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41">
+        <v>9.0920000000000005</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42">
+        <v>14.792</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43">
+        <v>13.010999999999999</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>3.5190000000000001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45">
+        <v>7.4790000000000001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>6.44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>19.795000000000002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF8BF6-9501-4FE7-A990-028D948B05BF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -9070,7 +9946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084CC17D-1544-474A-AC78-585AACD0F6D5}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -9347,7 +10223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A92A9F6-90DF-481C-A3F7-F4336056B880}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9360,4 +10236,871 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857F938-C94F-4961-B6B6-87CBB0463AB7}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.443</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0.501</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.316</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7">
+        <v>2.036</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.371</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>0.442</v>
+      </c>
+      <c r="C13">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14">
+        <v>2.04</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="C15">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>0.498</v>
+      </c>
+      <c r="C16">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>0.441</v>
+      </c>
+      <c r="C20">
+        <v>0.495</v>
+      </c>
+      <c r="D20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21">
+        <v>1.234</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22">
+        <v>1.103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>0.433</v>
+      </c>
+      <c r="C23">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>1.046</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>0.317</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.501</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31">
+        <v>0.44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C32">
+        <v>1.282</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C34">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34">
+        <v>2.13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36">
+        <v>2.395</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C37">
+        <v>1.131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37">
+        <v>2.3570000000000002</v>
+      </c>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C38">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C39">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39">
+        <v>4.08</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>0.44</v>
+      </c>
+      <c r="C40">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41">
+        <v>0.442</v>
+      </c>
+      <c r="C41">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42">
+        <v>0.435</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="D43" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43">
+        <v>2.371</v>
+      </c>
+      <c r="F43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1.466</v>
+      </c>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46">
+        <v>2.359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1.165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>